--- a/script/template_gen/enzymaticactivity.xlsx
+++ b/script/template_gen/enzymaticactivity.xlsx
@@ -192,7 +192,7 @@
     <t># format: texte, à définir....</t>
   </si>
   <si>
-    <t># format: nombre entier, ne pas spécifier d'unité</t>
+    <t># format: nombre entier, ne pas spécifier d'unité (nm)</t>
   </si>
   <si>
     <t># format: alphanumérique XXXX-XXXX,  ne pas spécifier d'unité</t>
